--- a/results/comparaison/statistical_test_cv.xlsx
+++ b/results/comparaison/statistical_test_cv.xlsx
@@ -489,22 +489,22 @@
         <v>16</v>
       </c>
       <c r="D2">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="E2">
-        <v>2.153250203761509E-35</v>
+        <v>2.808192539087345E-37</v>
       </c>
       <c r="F2">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="G2">
         <v>100</v>
       </c>
       <c r="H2">
-        <v>21.06777405650968</v>
+        <v>24.26623452497573</v>
       </c>
       <c r="I2">
-        <v>20.7988510730898</v>
+        <v>19.11774104457871</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -520,28 +520,28 @@
         <v>17</v>
       </c>
       <c r="D3">
-        <v>2450</v>
+        <v>3612.5</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="G3">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="H3">
-        <v>21.06777405650968</v>
+        <v>24.26623452497573</v>
       </c>
       <c r="I3">
-        <v>20.7988510730898</v>
+        <v>19.11774104457871</v>
       </c>
       <c r="J3">
-        <v>21.06777405650968</v>
+        <v>24.26623452497573</v>
       </c>
       <c r="K3">
-        <v>20.7988510730898</v>
+        <v>19.11774104457871</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -551,28 +551,28 @@
         <v>18</v>
       </c>
       <c r="D4">
-        <v>2185</v>
+        <v>3512</v>
       </c>
       <c r="E4">
-        <v>0.8081895463263999</v>
+        <v>0.5709916131736006</v>
       </c>
       <c r="F4">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="G4">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="H4">
-        <v>21.06777405650968</v>
+        <v>24.26623452497573</v>
       </c>
       <c r="I4">
-        <v>20.7988510730898</v>
+        <v>19.11774104457871</v>
       </c>
       <c r="J4">
-        <v>22.19413134367644</v>
+        <v>25.48038375748802</v>
       </c>
       <c r="K4">
-        <v>18.89152642582933</v>
+        <v>19.01076385234177</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -582,28 +582,28 @@
         <v>19</v>
       </c>
       <c r="D5">
-        <v>2117</v>
+        <v>3144</v>
       </c>
       <c r="E5">
-        <v>0.6933594258499913</v>
+        <v>0.1147689868577877</v>
       </c>
       <c r="F5">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="G5">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="H5">
-        <v>21.06777405650968</v>
+        <v>24.26623452497573</v>
       </c>
       <c r="I5">
-        <v>20.7988510730898</v>
+        <v>19.11774104457871</v>
       </c>
       <c r="J5">
-        <v>23.07114262294411</v>
+        <v>28.69016912565649</v>
       </c>
       <c r="K5">
-        <v>21.26867378552424</v>
+        <v>19.91412977917751</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -613,28 +613,28 @@
         <v>20</v>
       </c>
       <c r="D6">
-        <v>2220</v>
+        <v>3675</v>
       </c>
       <c r="E6">
-        <v>0.696757081784889</v>
+        <v>0.4911218548390623</v>
       </c>
       <c r="F6">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="G6">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="H6">
-        <v>21.06777405650968</v>
+        <v>24.26623452497573</v>
       </c>
       <c r="I6">
-        <v>20.7988510730898</v>
+        <v>19.11774104457871</v>
       </c>
       <c r="J6">
-        <v>20.54497789258423</v>
+        <v>25.96458601641032</v>
       </c>
       <c r="K6">
-        <v>16.80131367336304</v>
+        <v>18.91157182213508</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -644,28 +644,28 @@
         <v>21</v>
       </c>
       <c r="D7">
-        <v>2381</v>
+        <v>3556</v>
       </c>
       <c r="E7">
-        <v>0.8785089146902292</v>
+        <v>0.4962400474312094</v>
       </c>
       <c r="F7">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="G7">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="H7">
-        <v>21.06777405650968</v>
+        <v>24.26623452497573</v>
       </c>
       <c r="I7">
-        <v>20.7988510730898</v>
+        <v>19.11774104457871</v>
       </c>
       <c r="J7">
-        <v>20.40353732611919</v>
+        <v>26.08149565073357</v>
       </c>
       <c r="K7">
-        <v>18.76332590646322</v>
+        <v>19.47935492619516</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -677,22 +677,22 @@
         <v>16</v>
       </c>
       <c r="D8">
-        <v>3648</v>
+        <v>9400</v>
       </c>
       <c r="E8">
-        <v>1.048124759953716E-29</v>
+        <v>2.565629657834091E-38</v>
       </c>
       <c r="F8">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="G8">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H8">
-        <v>17.54881298097052</v>
+        <v>17.60975073558149</v>
       </c>
       <c r="I8">
-        <v>20.47783714057598</v>
+        <v>18.63055146756277</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -708,28 +708,28 @@
         <v>17</v>
       </c>
       <c r="D9">
-        <v>722</v>
+        <v>4418</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="G9">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="H9">
-        <v>17.54881298097052</v>
+        <v>17.60975073558149</v>
       </c>
       <c r="I9">
-        <v>20.47783714057598</v>
+        <v>18.63055146756277</v>
       </c>
       <c r="J9">
-        <v>17.54881298097052</v>
+        <v>17.60975073558149</v>
       </c>
       <c r="K9">
-        <v>20.47783714057598</v>
+        <v>18.63055146756277</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -739,28 +739,28 @@
         <v>18</v>
       </c>
       <c r="D10">
-        <v>682</v>
+        <v>3914</v>
       </c>
       <c r="E10">
-        <v>0.681546223780944</v>
+        <v>0.3194750096994206</v>
       </c>
       <c r="F10">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="G10">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="H10">
-        <v>17.54881298097052</v>
+        <v>17.60975073558149</v>
       </c>
       <c r="I10">
-        <v>20.47783714057598</v>
+        <v>18.63055146756277</v>
       </c>
       <c r="J10">
-        <v>21.53222850391215</v>
+        <v>19.45412092989661</v>
       </c>
       <c r="K10">
-        <v>25.52793854867283</v>
+        <v>19.08886489338698</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -770,28 +770,28 @@
         <v>19</v>
       </c>
       <c r="D11">
-        <v>726</v>
+        <v>4281</v>
       </c>
       <c r="E11">
-        <v>0.811542157730426</v>
+        <v>0.9078337969652105</v>
       </c>
       <c r="F11">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="G11">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="H11">
-        <v>17.54881298097052</v>
+        <v>17.60975073558149</v>
       </c>
       <c r="I11">
-        <v>20.47783714057598</v>
+        <v>18.63055146756277</v>
       </c>
       <c r="J11">
-        <v>17.38870883805248</v>
+        <v>17.52929804045222</v>
       </c>
       <c r="K11">
-        <v>22.45864611287999</v>
+        <v>18.09275629877325</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -801,28 +801,28 @@
         <v>20</v>
       </c>
       <c r="D12">
-        <v>744</v>
+        <v>4333</v>
       </c>
       <c r="E12">
-        <v>0.4926418247077048</v>
+        <v>0.6376471556753459</v>
       </c>
       <c r="F12">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="G12">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="H12">
-        <v>17.54881298097052</v>
+        <v>17.60975073558149</v>
       </c>
       <c r="I12">
-        <v>20.47783714057598</v>
+        <v>18.63055146756277</v>
       </c>
       <c r="J12">
-        <v>21.85367403754232</v>
+        <v>17.6699092160549</v>
       </c>
       <c r="K12">
-        <v>24.83990640006058</v>
+        <v>18.01273644578071</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -832,28 +832,28 @@
         <v>21</v>
       </c>
       <c r="D13">
-        <v>569</v>
+        <v>4183</v>
       </c>
       <c r="E13">
-        <v>0.2916476939988063</v>
+        <v>0.3860615910561968</v>
       </c>
       <c r="F13">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="G13">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="H13">
-        <v>17.54881298097052</v>
+        <v>17.60975073558149</v>
       </c>
       <c r="I13">
-        <v>20.47783714057598</v>
+        <v>18.63055146756277</v>
       </c>
       <c r="J13">
-        <v>19.82700379283527</v>
+        <v>20.69082520324423</v>
       </c>
       <c r="K13">
-        <v>16.60742127967904</v>
+        <v>22.07105363496164</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -867,22 +867,22 @@
         <v>16</v>
       </c>
       <c r="D14">
-        <v>6400</v>
+        <v>7800</v>
       </c>
       <c r="E14">
-        <v>8.079396303690864E-25</v>
+        <v>1.625080043660306E-26</v>
       </c>
       <c r="F14">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="G14">
         <v>100</v>
       </c>
       <c r="H14">
-        <v>1.050914724894104</v>
+        <v>1.056303268098712</v>
       </c>
       <c r="I14">
-        <v>0.03391928890681133</v>
+        <v>0.04842710843895684</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -898,28 +898,28 @@
         <v>17</v>
       </c>
       <c r="D15">
-        <v>2450</v>
+        <v>3612.5</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="G15">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="H15">
-        <v>1.050914724894104</v>
+        <v>1.056303268098712</v>
       </c>
       <c r="I15">
-        <v>0.03391928890681133</v>
+        <v>0.04842710843895684</v>
       </c>
       <c r="J15">
-        <v>1.050914724894104</v>
+        <v>1.056303268098712</v>
       </c>
       <c r="K15">
-        <v>0.03391928890681133</v>
+        <v>0.04842710843895684</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -929,28 +929,28 @@
         <v>18</v>
       </c>
       <c r="D16">
-        <v>2143</v>
+        <v>3862</v>
       </c>
       <c r="E16">
-        <v>0.6673082768029365</v>
+        <v>0.6154734676114035</v>
       </c>
       <c r="F16">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="G16">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="H16">
-        <v>1.050914724894104</v>
+        <v>1.056303268098712</v>
       </c>
       <c r="I16">
-        <v>0.03391928890681133</v>
+        <v>0.04842710843895684</v>
       </c>
       <c r="J16">
-        <v>1.049992429155245</v>
+        <v>1.049903903745549</v>
       </c>
       <c r="K16">
-        <v>0.03594065738133586</v>
+        <v>0.0621955229566507</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -960,28 +960,28 @@
         <v>19</v>
       </c>
       <c r="D17">
-        <v>2349</v>
+        <v>4061</v>
       </c>
       <c r="E17">
-        <v>0.5178569976926104</v>
+        <v>0.2103028377616685</v>
       </c>
       <c r="F17">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="G17">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="H17">
-        <v>1.050914724894104</v>
+        <v>1.056303268098712</v>
       </c>
       <c r="I17">
-        <v>0.03391928890681133</v>
+        <v>0.04842710843895684</v>
       </c>
       <c r="J17">
-        <v>1.045761386084142</v>
+        <v>1.041633458452455</v>
       </c>
       <c r="K17">
-        <v>0.03404744822535639</v>
+        <v>0.06606306204679072</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -991,28 +991,28 @@
         <v>20</v>
       </c>
       <c r="D18">
-        <v>2527</v>
+        <v>4439</v>
       </c>
       <c r="E18">
-        <v>0.3458413198110406</v>
+        <v>0.1207216408379425</v>
       </c>
       <c r="F18">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="G18">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="H18">
-        <v>1.050914724894104</v>
+        <v>1.056303268098712</v>
       </c>
       <c r="I18">
-        <v>0.03391928890681133</v>
+        <v>0.04842710843895684</v>
       </c>
       <c r="J18">
-        <v>1.046345784093388</v>
+        <v>1.0396313861683</v>
       </c>
       <c r="K18">
-        <v>0.03268106437414894</v>
+        <v>0.06156258878931065</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1022,28 +1022,28 @@
         <v>21</v>
       </c>
       <c r="D19">
-        <v>2266</v>
+        <v>3780</v>
       </c>
       <c r="E19">
-        <v>0.7353528565127121</v>
+        <v>0.9951956508102576</v>
       </c>
       <c r="F19">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="G19">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="H19">
-        <v>1.050914724894104</v>
+        <v>1.056303268098712</v>
       </c>
       <c r="I19">
-        <v>0.03391928890681133</v>
+        <v>0.04842710843895684</v>
       </c>
       <c r="J19">
-        <v>1.053519452390373</v>
+        <v>1.05550427863274</v>
       </c>
       <c r="K19">
-        <v>0.0372076008072164</v>
+        <v>0.05466385591240686</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1055,22 +1055,22 @@
         <v>16</v>
       </c>
       <c r="D20">
-        <v>2208</v>
+        <v>4900</v>
       </c>
       <c r="E20">
-        <v>0.01728224405355084</v>
+        <v>0.5826912833642663</v>
       </c>
       <c r="F20">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="G20">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H20">
-        <v>1.005145596480496</v>
+        <v>1.000951915356464</v>
       </c>
       <c r="I20">
-        <v>0.009687372843398188</v>
+        <v>0.02940571294469115</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -1086,28 +1086,28 @@
         <v>17</v>
       </c>
       <c r="D21">
-        <v>722</v>
+        <v>4418</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="G21">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="H21">
-        <v>1.005145596480496</v>
+        <v>1.000951915356464</v>
       </c>
       <c r="I21">
-        <v>0.009687372843398188</v>
+        <v>0.02940571294469115</v>
       </c>
       <c r="J21">
-        <v>1.005145596480496</v>
+        <v>1.000951915356464</v>
       </c>
       <c r="K21">
-        <v>0.009687372843398188</v>
+        <v>0.02940571294469115</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1117,28 +1117,28 @@
         <v>18</v>
       </c>
       <c r="D22">
-        <v>673</v>
+        <v>4196</v>
       </c>
       <c r="E22">
-        <v>0.614365044281149</v>
+        <v>0.8250317469662701</v>
       </c>
       <c r="F22">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="G22">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="H22">
-        <v>1.005145596480496</v>
+        <v>1.000951915356464</v>
       </c>
       <c r="I22">
-        <v>0.009687372843398188</v>
+        <v>0.02940571294469115</v>
       </c>
       <c r="J22">
-        <v>1.008586317245426</v>
+        <v>0.9994274149047458</v>
       </c>
       <c r="K22">
-        <v>0.00836886503991602</v>
+        <v>0.02540785342055299</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1148,28 +1148,28 @@
         <v>19</v>
       </c>
       <c r="D23">
-        <v>674</v>
+        <v>4611</v>
       </c>
       <c r="E23">
-        <v>0.7626366452621398</v>
+        <v>0.4351350131115416</v>
       </c>
       <c r="F23">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="G23">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="H23">
-        <v>1.005145596480496</v>
+        <v>1.000951915356464</v>
       </c>
       <c r="I23">
-        <v>0.009687372843398188</v>
+        <v>0.02940571294469115</v>
       </c>
       <c r="J23">
-        <v>1.003912324049097</v>
+        <v>0.9977133013073197</v>
       </c>
       <c r="K23">
-        <v>0.01104475262266289</v>
+        <v>0.03125245642577462</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1179,28 +1179,28 @@
         <v>20</v>
       </c>
       <c r="D24">
-        <v>827</v>
+        <v>5541</v>
       </c>
       <c r="E24">
-        <v>0.9283631304948439</v>
+        <v>0.006651523926938394</v>
       </c>
       <c r="F24">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="G24">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="H24">
-        <v>1.005145596480496</v>
+        <v>1.000951915356464</v>
       </c>
       <c r="I24">
-        <v>0.009687372843398188</v>
+        <v>0.02940571294469115</v>
       </c>
       <c r="J24">
-        <v>1.003304569785477</v>
+        <v>0.9872557777411911</v>
       </c>
       <c r="K24">
-        <v>0.009896166945392342</v>
+        <v>0.03648096747536625</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1210,28 +1210,28 @@
         <v>21</v>
       </c>
       <c r="D25">
-        <v>745</v>
+        <v>5312</v>
       </c>
       <c r="E25">
-        <v>0.3800297802071639</v>
+        <v>0.03489586151989286</v>
       </c>
       <c r="F25">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="G25">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="H25">
-        <v>1.005145596480496</v>
+        <v>1.000951915356464</v>
       </c>
       <c r="I25">
-        <v>0.009687372843398188</v>
+        <v>0.02940571294469115</v>
       </c>
       <c r="J25">
-        <v>1.00329570595833</v>
+        <v>0.9909675244626969</v>
       </c>
       <c r="K25">
-        <v>0.01166238856031381</v>
+        <v>0.02975630978394025</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1245,22 +1245,22 @@
         <v>16</v>
       </c>
       <c r="D26">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="E26">
-        <v>3.40189355892892E-16</v>
+        <v>1.798394094827535E-15</v>
       </c>
       <c r="F26">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="G26">
         <v>100</v>
       </c>
       <c r="H26">
-        <v>0.8345551166845494</v>
+        <v>0.7310366159814883</v>
       </c>
       <c r="I26">
-        <v>0.4914440164603387</v>
+        <v>0.4251270990576909</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -1276,28 +1276,28 @@
         <v>17</v>
       </c>
       <c r="D27">
-        <v>2450</v>
+        <v>3612.5</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
       <c r="F27">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="G27">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="H27">
-        <v>0.8345551166845494</v>
+        <v>0.7310366159814883</v>
       </c>
       <c r="I27">
-        <v>0.4914440164603387</v>
+        <v>0.4251270990576909</v>
       </c>
       <c r="J27">
-        <v>0.8345551166845494</v>
+        <v>0.7310366159814883</v>
       </c>
       <c r="K27">
-        <v>0.4914440164603387</v>
+        <v>0.4251270990576909</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1307,28 +1307,28 @@
         <v>18</v>
       </c>
       <c r="D28">
-        <v>1978</v>
+        <v>3613</v>
       </c>
       <c r="E28">
-        <v>0.2440944609717374</v>
+        <v>0.7969755525344451</v>
       </c>
       <c r="F28">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="G28">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="H28">
-        <v>0.8345551166845494</v>
+        <v>0.7310366159814883</v>
       </c>
       <c r="I28">
-        <v>0.4914440164603387</v>
+        <v>0.4251270990576909</v>
       </c>
       <c r="J28">
-        <v>0.8827330789494828</v>
+        <v>0.7629962790402484</v>
       </c>
       <c r="K28">
-        <v>0.5465273256444141</v>
+        <v>0.4643945638808321</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1338,28 +1338,28 @@
         <v>19</v>
       </c>
       <c r="D29">
-        <v>2101</v>
+        <v>3899</v>
       </c>
       <c r="E29">
-        <v>0.6409286449578848</v>
+        <v>0.451896064241222</v>
       </c>
       <c r="F29">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="G29">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="H29">
-        <v>0.8345551166845494</v>
+        <v>0.7310366159814883</v>
       </c>
       <c r="I29">
-        <v>0.4914440164603387</v>
+        <v>0.4251270990576909</v>
       </c>
       <c r="J29">
-        <v>0.8489193982795405</v>
+        <v>0.705603482581682</v>
       </c>
       <c r="K29">
-        <v>0.5622698365594291</v>
+        <v>0.4574071535320576</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1369,28 +1369,28 @@
         <v>20</v>
       </c>
       <c r="D30">
-        <v>1768</v>
+        <v>3453</v>
       </c>
       <c r="E30">
-        <v>0.01838336607877756</v>
+        <v>0.1801317750976587</v>
       </c>
       <c r="F30">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="G30">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="H30">
-        <v>0.8345551166845494</v>
+        <v>0.7310366159814883</v>
       </c>
       <c r="I30">
-        <v>0.4914440164603387</v>
+        <v>0.4251270990576909</v>
       </c>
       <c r="J30">
-        <v>0.9544476677048837</v>
+        <v>0.871156715925275</v>
       </c>
       <c r="K30">
-        <v>0.5778188510170602</v>
+        <v>0.5848175195155606</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1400,28 +1400,28 @@
         <v>21</v>
       </c>
       <c r="D31">
-        <v>2261</v>
+        <v>3722</v>
       </c>
       <c r="E31">
-        <v>0.7191887325963147</v>
+        <v>0.8566487012274508</v>
       </c>
       <c r="F31">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="G31">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="H31">
-        <v>0.8345551166845494</v>
+        <v>0.7310366159814883</v>
       </c>
       <c r="I31">
-        <v>0.4914440164603387</v>
+        <v>0.4251270990576909</v>
       </c>
       <c r="J31">
-        <v>0.8336576766553557</v>
+        <v>0.765177299786501</v>
       </c>
       <c r="K31">
-        <v>0.5490071620464941</v>
+        <v>0.4753618451576108</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1433,22 +1433,22 @@
         <v>16</v>
       </c>
       <c r="D32">
-        <v>192</v>
+        <v>1400</v>
       </c>
       <c r="E32">
-        <v>4.157353553603925E-24</v>
+        <v>1.014362195804016E-19</v>
       </c>
       <c r="F32">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="G32">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H32">
-        <v>0.7256013526259463</v>
+        <v>0.7152160735701159</v>
       </c>
       <c r="I32">
-        <v>0.1508664772457509</v>
+        <v>0.4169546801315465</v>
       </c>
       <c r="J32">
         <v>1</v>
@@ -1464,28 +1464,28 @@
         <v>17</v>
       </c>
       <c r="D33">
-        <v>722</v>
+        <v>4418</v>
       </c>
       <c r="E33">
         <v>1</v>
       </c>
       <c r="F33">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="G33">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="H33">
-        <v>0.7256013526259463</v>
+        <v>0.7152160735701159</v>
       </c>
       <c r="I33">
-        <v>0.1508664772457509</v>
+        <v>0.4169546801315465</v>
       </c>
       <c r="J33">
-        <v>0.7256013526259463</v>
+        <v>0.7152160735701159</v>
       </c>
       <c r="K33">
-        <v>0.1508664772457509</v>
+        <v>0.4169546801315465</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1495,28 +1495,28 @@
         <v>18</v>
       </c>
       <c r="D34">
-        <v>732</v>
+        <v>4117</v>
       </c>
       <c r="E34">
-        <v>0.9213822220542346</v>
+        <v>0.6613598866143098</v>
       </c>
       <c r="F34">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="G34">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="H34">
-        <v>0.7256013526259463</v>
+        <v>0.7152160735701159</v>
       </c>
       <c r="I34">
-        <v>0.1508664772457509</v>
+        <v>0.4169546801315465</v>
       </c>
       <c r="J34">
-        <v>0.7325601336069201</v>
+        <v>0.7361271814716577</v>
       </c>
       <c r="K34">
-        <v>0.1819979882153643</v>
+        <v>0.4082408668892568</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1526,28 +1526,28 @@
         <v>19</v>
       </c>
       <c r="D35">
-        <v>726</v>
+        <v>4494</v>
       </c>
       <c r="E35">
-        <v>0.811542157730426</v>
+        <v>0.6442798432015006</v>
       </c>
       <c r="F35">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="G35">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="H35">
-        <v>0.7256013526259463</v>
+        <v>0.7152160735701159</v>
       </c>
       <c r="I35">
-        <v>0.1508664772457509</v>
+        <v>0.4169546801315465</v>
       </c>
       <c r="J35">
-        <v>0.7316977514323042</v>
+        <v>0.7213559464104189</v>
       </c>
       <c r="K35">
-        <v>0.1531828412887333</v>
+        <v>0.4795628221458288</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1557,28 +1557,28 @@
         <v>20</v>
       </c>
       <c r="D36">
-        <v>725</v>
+        <v>4490</v>
       </c>
       <c r="E36">
-        <v>0.3865329473102821</v>
+        <v>0.9547602684096348</v>
       </c>
       <c r="F36">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="G36">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="H36">
-        <v>0.7256013526259463</v>
+        <v>0.7152160735701159</v>
       </c>
       <c r="I36">
-        <v>0.1508664772457509</v>
+        <v>0.4169546801315465</v>
       </c>
       <c r="J36">
-        <v>0.809123859403404</v>
+        <v>0.7353176517681007</v>
       </c>
       <c r="K36">
-        <v>0.2054826565479407</v>
+        <v>0.4785321109872692</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1588,28 +1588,28 @@
         <v>21</v>
       </c>
       <c r="D37">
-        <v>793</v>
+        <v>5113</v>
       </c>
       <c r="E37">
-        <v>0.1591728583731105</v>
+        <v>0.1130839933888709</v>
       </c>
       <c r="F37">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="G37">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="H37">
-        <v>0.7256013526259463</v>
+        <v>0.7152160735701159</v>
       </c>
       <c r="I37">
-        <v>0.1508664772457509</v>
+        <v>0.4169546801315465</v>
       </c>
       <c r="J37">
-        <v>0.6808068201595996</v>
+        <v>0.6424708716332671</v>
       </c>
       <c r="K37">
-        <v>0.1592094496546996</v>
+        <v>0.3875645555753933</v>
       </c>
     </row>
   </sheetData>
